--- a/experiment/excel/chatgpt_data1.xlsx
+++ b/experiment/excel/chatgpt_data1.xlsx
@@ -464,19 +464,19 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
+          <t>时间段</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>交易时间</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
           <t>盘后交易时间</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>时间段</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>交易时间</t>
-        </is>
-      </c>
       <c r="L1" t="inlineStr">
         <is>
           <t>申报时间</t>
@@ -494,47 +494,47 @@
       </c>
       <c r="O1" t="inlineStr">
         <is>
+          <t>限价</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>停牌状态</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>盘后定价委托指令</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
           <t>即时行情</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>深股通盘后定价申报指令</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>撮合原则</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>申报撤销</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
         <is>
           <t>成交价</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>停牌状态</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>限价</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>盘后定价申报指令</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>撮合原则</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>深股通盘后定价申报指令</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>盘后定价委托指令</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>申报撤销</t>
         </is>
       </c>
       <c r="X1" t="inlineStr">
@@ -585,12 +585,12 @@
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>收盘后</t>
         </is>
       </c>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr">
@@ -655,12 +655,12 @@
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>非收盘后</t>
         </is>
       </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr">
@@ -724,13 +724,13 @@
           <t>提交申报并在有效时间内撤销</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
         <is>
           <t>15:05至15:30</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
           <t>9:15至11:30、13:00至15:30</t>
@@ -739,22 +739,22 @@
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>非停牌或停牌后重新开市</t>
         </is>
       </c>
+      <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>在接受申报的时间内有效</t>
+        </is>
+      </c>
       <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>在接受申报的时间内有效</t>
-        </is>
-      </c>
+      <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr">
         <is>
           <t>成功</t>
@@ -802,13 +802,13 @@
           <t>在非规定时间提交申报或尝试撤销</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
         <is>
           <t>非15:05至15:30</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
           <t>非9:15至11:30、13:00至15:30</t>
@@ -817,22 +817,22 @@
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>15:00仍处于停牌</t>
         </is>
       </c>
+      <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>在非接受申报的时间内或未经交易主机确认</t>
+        </is>
+      </c>
       <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>在非接受申报的时间内或未经交易主机确认</t>
-        </is>
-      </c>
+      <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr">
         <is>
           <t>不成功</t>
@@ -888,16 +888,16 @@
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>{'证券账户号码': '有效账户号码', '证券代码': '有效股票代码', '买卖方向': '明确指定', '限价': '指定价格', '委托数量': '指定数量'}</t>
+        </is>
+      </c>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>{'证券账户号码': '有效账户号码', '证券代码': '有效股票代码', '买卖方向': '明确指定', '限价': '指定价格', '委托数量': '指定数量'}</t>
-        </is>
-      </c>
+      <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr">
         <is>
@@ -954,16 +954,16 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>{'证券账户号码': '缺失或无效', '证券代码': '缺失或无效', '买卖方向': '未指定或错误', '限价': '未指定或不合理', '委托数量': '未指定或不合理'}</t>
+        </is>
+      </c>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>{'证券账户号码': '缺失或无效', '证券代码': '缺失或无效', '买卖方向': '未指定或错误', '限价': '未指定或不合理', '委托数量': '未指定或不合理'}</t>
-        </is>
-      </c>
+      <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr">
         <is>
@@ -1018,15 +1018,15 @@
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>{'证券账户号码': '有效账户号码', '证券代码': '有效股票代码', '交易单元代码': '有效代码', '证券营业部识别码': '有效识别码', '买卖方向': '明确指定', '限价': '指定价格', '数量': '指定数量'}</t>
-        </is>
-      </c>
+      <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>{'证券账户号码': '有效账户号码', '证券代码': '有效股票代码', '交易单元代码': '有效代码', '证券营业部识别码': '有效识别码', '买卖方向': '明确指定', '限价': '指定价格', '数量': '指定数量'}</t>
+        </is>
+      </c>
       <c r="X8" t="inlineStr">
         <is>
           <t>成功</t>
@@ -1080,15 +1080,15 @@
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>{'证券账户号码': '缺失或无效', '证券代码': '缺失或无效', '交易单元代码': '缺失或无效', '证券营业部识别码': '缺失或无效', '买卖方向': '未指定或错误', '限价': '未指定或不合理', '数量': '未指定或不合理'}</t>
-        </is>
-      </c>
+      <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>{'证券账户号码': '缺失或无效', '证券代码': '缺失或无效', '交易单元代码': '缺失或无效', '证券营业部识别码': '缺失或无效', '买卖方向': '未指定或错误', '限价': '未指定或不合理', '数量': '未指定或不合理'}</t>
+        </is>
+      </c>
       <c r="X9" t="inlineStr">
         <is>
           <t>不成功</t>
@@ -1142,13 +1142,13 @@
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>{'券商客户编码': '有效编码', '证券代码': '有效股票代码', '经纪商代码': '有效代码', '买卖方向': '明确指定', '限价': '指定价格', '数量': '指定数量'}</t>
+        </is>
+      </c>
       <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>{'券商客户编码': '有效编码', '证券代码': '有效股票代码', '经纪商代码': '有效代码', '买卖方向': '明确指定', '限价': '指定价格', '数量': '指定数量'}</t>
-        </is>
-      </c>
+      <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr">
@@ -1204,13 +1204,13 @@
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>{'券商客户编码': '缺失或无效', '证券代码': '缺失或无效', '经纪商代码': '缺失或无效', '买卖方向': '未指定或错误', '限价': '未指定或不合理', '数量': '未指定或不合理'}</t>
+        </is>
+      </c>
       <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>{'券商客户编码': '缺失或无效', '证券代码': '缺失或无效', '经纪商代码': '缺失或无效', '买卖方向': '未指定或错误', '限价': '未指定或不合理', '数量': '未指定或不合理'}</t>
-        </is>
-      </c>
+      <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr">
@@ -1266,14 +1266,14 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>买入等于或高于收盘价,卖出等于或低于收盘价</t>
+        </is>
+      </c>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>买入等于或高于收盘价,卖出等于或低于收盘价</t>
-        </is>
-      </c>
+      <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
@@ -1332,14 +1332,14 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>买入低于收盘价,卖出高于收盘价</t>
+        </is>
+      </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>买入低于收盘价,卖出高于收盘价</t>
-        </is>
-      </c>
+      <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
@@ -1531,11 +1531,7 @@
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>收盘价</t>
-        </is>
-      </c>
+      <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
@@ -1545,7 +1541,11 @@
         </is>
       </c>
       <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>收盘价</t>
+        </is>
+      </c>
       <c r="W16" t="inlineStr"/>
       <c r="X16" t="inlineStr">
         <is>
@@ -1601,11 +1601,7 @@
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>非收盘价</t>
-        </is>
-      </c>
+      <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
@@ -1615,7 +1611,11 @@
         </is>
       </c>
       <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>非收盘价</t>
+        </is>
+      </c>
       <c r="W17" t="inlineStr"/>
       <c r="X17" t="inlineStr">
         <is>
@@ -1660,24 +1660,24 @@
           <t>确认在指定时间内,即时行情包含所需所有信息</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>15:05至15:30</t>
         </is>
       </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>{'证券代码': '包含', '证券简称': '包含', '收盘价': '包含', '累计成交数量': '包含', '累计成交金额': '包含', '未成交申报数量': '包含'}</t>
-        </is>
-      </c>
+      <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>{'证券代码': '包含', '证券简称': '包含', '收盘价': '包含', '累计成交数量': '包含', '累计成交金额': '包含', '未成交申报数量': '包含'}</t>
+        </is>
+      </c>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr"/>
@@ -1726,24 +1726,24 @@
           <t>确认在非指定时间内,即时行情不包含盘后定价申报信息</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>9:15至15:05</t>
         </is>
       </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>{'证券代码': '不包含', '证券简称': '不包含', '收盘价': '不包含', '累计成交数量': '不包含', '累计成交金额': '不包含', '未成交申报数量': '不包含'}</t>
-        </is>
-      </c>
+      <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>{'证券代码': '不包含', '证券简称': '不包含', '收盘价': '不包含', '累计成交数量': '不包含', '累计成交金额': '不包含', '未成交申报数量': '不包含'}</t>
+        </is>
+      </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr"/>
